--- a/SVD_Files/I2C.xlsx
+++ b/SVD_Files/I2C.xlsx
@@ -153,9 +153,6 @@
     <t>INT</t>
   </si>
   <si>
-    <t>IRQ Flag</t>
-  </si>
-  <si>
     <t>TR_Prog</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>Data to Send</t>
+  </si>
+  <si>
+    <t>1: IRQ Flag active</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:H36"/>
+      <selection activeCell="C27" sqref="C27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +964,7 @@
         <v>43</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -977,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -1004,10 +1004,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -1020,10 +1020,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -1036,10 +1036,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -1064,7 +1064,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>22</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C36" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -1174,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>11</v>
@@ -1204,10 +1204,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -1220,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -1236,10 +1236,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -1252,10 +1252,10 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -1268,10 +1268,10 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -1296,7 +1296,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>22</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C54" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -1351,17 +1351,30 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C14:H14"/>
@@ -1375,30 +1388,17 @@
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SVD_Files/I2C.xlsx
+++ b/SVD_Files/I2C.xlsx
@@ -291,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -299,37 +299,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -610,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,758 +652,801 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1"/>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="4"/>
+      <c r="J6"/>
+      <c r="K6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>0</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>5</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="2" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="2" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="2" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="2" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
         <v>0</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>3</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>4</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>5</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>6</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
         <v>7</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="9"/>
+      <c r="B49" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+      <c r="C53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
+  <mergeCells count="47">
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C14:H14"/>
@@ -1388,19 +1460,31 @@
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>